--- a/mf-intelligence/data/processed/quant/quant_Multi_Cap_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Multi_Cap_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INE002A01018</t>
+          <t>INE406A01037</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Reliance Industries Limited</t>
+          <t>Aurobindo Pharma Limited</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,30 +492,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.232139</v>
+        <v>6.955886</v>
       </c>
       <c r="E2" t="n">
-        <v>5.785169</v>
+        <v>6.205028</v>
       </c>
       <c r="F2" t="n">
-        <v>5.180561</v>
+        <v>5.983827</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4469700000000003</v>
+        <v>0.7508579999999991</v>
       </c>
       <c r="H2" t="n">
-        <v>1.051578</v>
+        <v>0.9720589999999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INE406A01037</t>
+          <t>INE814H01029</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aurobindo Pharma Limited</t>
+          <t>Adani Power Limited</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,30 +524,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.205028</v>
+        <v>5.270182</v>
       </c>
       <c r="E3" t="n">
-        <v>5.983827</v>
+        <v>5.069235</v>
       </c>
       <c r="F3" t="n">
-        <v>5.24637</v>
+        <v>4.862739</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2212010000000006</v>
+        <v>0.2009470000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9586580000000007</v>
+        <v>0.4074429999999998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INE814H01029</t>
+          <t>INE018A01030</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adani Power Limited</t>
+          <t>Larsen &amp; Toubro Limited</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,30 +556,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5.069235</v>
+        <v>4.738305</v>
       </c>
       <c r="E4" t="n">
-        <v>4.862739</v>
+        <v>4.480996</v>
       </c>
       <c r="F4" t="n">
-        <v>5.06434</v>
+        <v>4.153129</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2064959999999996</v>
+        <v>0.2573090000000002</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004895000000000316</v>
+        <v>0.5851760000000006</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE216A01030</t>
+          <t>INE665A01038</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Britannia Industries Limited</t>
+          <t>Swan Corp Limited</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,30 +588,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.652427</v>
+        <v>3.696868</v>
       </c>
       <c r="E5" t="n">
-        <v>4.194022</v>
+        <v>3.743531</v>
       </c>
       <c r="F5" t="n">
-        <v>3.954185</v>
+        <v>3.332591</v>
       </c>
       <c r="G5" t="n">
-        <v>0.458405</v>
+        <v>-0.04666300000000012</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6982420000000005</v>
+        <v>0.364277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE018A01030</t>
+          <t>INE002A01018</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Larsen &amp; Toubro Limited</t>
+          <t>Reliance Industries Limited</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.480996</v>
+        <v>3.07675</v>
       </c>
       <c r="E6" t="n">
-        <v>4.153129</v>
+        <v>6.232139</v>
       </c>
       <c r="F6" t="n">
-        <v>3.884708</v>
+        <v>5.785169</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3278670000000004</v>
+        <v>-3.155389</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5962880000000004</v>
+        <v>-2.708419</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE758E01017</t>
+          <t>INE423A01024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jio Financial Services Limited</t>
+          <t>Adani Enterprises Limited</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.256152</v>
+        <v>2.896197</v>
       </c>
       <c r="E7" t="n">
-        <v>4.109184</v>
+        <v>2.92379</v>
       </c>
       <c r="F7" t="n">
-        <v>3.888108</v>
+        <v>2.768286</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1469680000000002</v>
+        <v>-0.02759299999999998</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3680440000000003</v>
+        <v>0.1279110000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE665A01038</t>
+          <t>INE775A01035</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Swan Corp Limited</t>
+          <t>Samvardhana Motherson International Ltd</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,30 +684,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3.743531</v>
+        <v>2.647386</v>
       </c>
       <c r="E8" t="n">
-        <v>3.332591</v>
+        <v>2.561256</v>
       </c>
       <c r="F8" t="n">
-        <v>3.292986</v>
+        <v>2.309871</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4109400000000001</v>
+        <v>0.08612999999999982</v>
       </c>
       <c r="H8" t="n">
-        <v>0.450545</v>
+        <v>0.3375150000000002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE423A01024</t>
+          <t>INE699H01024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited</t>
+          <t>Adani Wilmar Limited</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.92379</v>
+        <v>2.562184</v>
       </c>
       <c r="E9" t="n">
-        <v>2.768286</v>
+        <v>2.587741</v>
       </c>
       <c r="F9" t="n">
-        <v>2.844444</v>
+        <v>2.626664</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1555040000000001</v>
+        <v>-0.02555700000000005</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07934599999999969</v>
+        <v>-0.06448000000000009</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE699H01024</t>
+          <t>INE821I01022</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Adani Wilmar Limited</t>
+          <t>IRB Infrastructure Developers Limited</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.587741</v>
+        <v>2.51366</v>
       </c>
       <c r="E10" t="n">
-        <v>2.626664</v>
+        <v>2.316686</v>
       </c>
       <c r="F10" t="n">
-        <v>2.632286</v>
+        <v>2.198575</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03892300000000004</v>
+        <v>0.196974</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.04454500000000028</v>
+        <v>0.3150849999999998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE775A01035</t>
+          <t>INE424H01027</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Samvardhana Motherson International Ltd</t>
+          <t>SUN TV Network Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.561256</v>
+        <v>2.430596</v>
       </c>
       <c r="E11" t="n">
-        <v>2.309871</v>
+        <v>2.34015</v>
       </c>
       <c r="F11" t="n">
-        <v>1.976526</v>
+        <v>2.058173</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2513850000000004</v>
+        <v>0.09044600000000003</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5847300000000002</v>
+        <v>0.3724229999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE669C01036</t>
+          <t>INE007A01025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tech Mahindra Limited</t>
+          <t>CRISIL Limited</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,30 +812,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.548546</v>
+        <v>2.186376</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1.844876</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.756265</v>
       </c>
       <c r="G12" t="n">
-        <v>2.548546</v>
+        <v>0.3415000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2.548546</v>
+        <v>0.4301110000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE424H01027</t>
+          <t>INE364U01010</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SUN TV Network Limited</t>
+          <t>Adani Green Energy Limited</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,30 +844,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2.34015</v>
+        <v>2.062799</v>
       </c>
       <c r="E13" t="n">
-        <v>2.058173</v>
+        <v>2.237375</v>
       </c>
       <c r="F13" t="n">
-        <v>1.965147</v>
+        <v>2.148602</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2819769999999999</v>
+        <v>-0.1745760000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0.375003</v>
+        <v>-0.08580299999999985</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE821I01022</t>
+          <t>INE069I01010</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IRB Infrastructure Developers Limited</t>
+          <t>Embassy Developments Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.316686</v>
+        <v>2.029889</v>
       </c>
       <c r="E14" t="n">
-        <v>2.198575</v>
+        <v>1.641755</v>
       </c>
       <c r="F14" t="n">
-        <v>2.167187</v>
+        <v>2.005746</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1181109999999999</v>
+        <v>0.3881339999999998</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1494989999999996</v>
+        <v>0.02414300000000003</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE364U01010</t>
+          <t>INE115A01026</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Adani Green Energy Limited</t>
+          <t>LIC Housing Finance Ltd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -908,30 +908,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2.237375</v>
+        <v>1.962087</v>
       </c>
       <c r="E15" t="n">
-        <v>2.148602</v>
+        <v>1.831818</v>
       </c>
       <c r="F15" t="n">
-        <v>2.20673</v>
+        <v>1.733739</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08877300000000021</v>
+        <v>0.130269</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03064500000000026</v>
+        <v>0.228348</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE007A01025</t>
+          <t>INE939A01011</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CRISIL Limited</t>
+          <t>Strides Pharma Science Ltd</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,30 +940,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.844876</v>
+        <v>1.67256</v>
       </c>
       <c r="E16" t="n">
-        <v>1.756265</v>
+        <v>1.56372</v>
       </c>
       <c r="F16" t="n">
-        <v>1.848048</v>
+        <v>1.418802</v>
       </c>
       <c r="G16" t="n">
-        <v>0.088611</v>
+        <v>0.10884</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.003171999999999953</v>
+        <v>0.2537580000000002</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE115A01026</t>
+          <t>INE758E01017</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LIC Housing Finance Ltd</t>
+          <t>Jio Financial Services Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -972,30 +972,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.831818</v>
+        <v>1.614212</v>
       </c>
       <c r="E17" t="n">
-        <v>1.733739</v>
+        <v>4.256152</v>
       </c>
       <c r="F17" t="n">
-        <v>1.702405</v>
+        <v>4.109184</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09807900000000003</v>
+        <v>-2.64194</v>
       </c>
       <c r="H17" t="n">
-        <v>0.129413</v>
+        <v>-2.494972</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE069I01010</t>
+          <t>INE930H01031</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Embassy Developments Limited</t>
+          <t>K.P.R. Mill Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1004,30 +1004,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.641755</v>
+        <v>1.534487</v>
       </c>
       <c r="E18" t="n">
-        <v>2.005746</v>
+        <v>1.514501</v>
       </c>
       <c r="F18" t="n">
-        <v>2.276528</v>
+        <v>1.613388</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.3639909999999997</v>
+        <v>0.01998599999999984</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.6347729999999998</v>
+        <v>-0.07890100000000011</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE14LE01019</t>
+          <t>INE026A01025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Aditya Birla Lifestyle Brands Limited</t>
+          <t>Gujarat State Fert &amp; Chemicals Ltd</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1036,30 +1036,30 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.631802</v>
+        <v>1.490414</v>
       </c>
       <c r="E19" t="n">
-        <v>1.548379</v>
+        <v>1.342944</v>
       </c>
       <c r="F19" t="n">
-        <v>1.50074</v>
+        <v>1.261865</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08342300000000002</v>
+        <v>0.14747</v>
       </c>
       <c r="H19" t="n">
-        <v>0.131062</v>
+        <v>0.2285489999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE01TY01017</t>
+          <t>INE14LE01019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Canara HSBC Life Insurance Company Ltd</t>
+          <t>Aditya Birla Lifestyle Brands Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1068,30 +1068,30 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.6305</v>
+        <v>1.475138</v>
       </c>
       <c r="E20" t="n">
-        <v>1.259182</v>
+        <v>1.631802</v>
       </c>
       <c r="F20" t="n">
-        <v>1.124549</v>
+        <v>1.548379</v>
       </c>
       <c r="G20" t="n">
-        <v>0.371318</v>
+        <v>-0.1566639999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0.505951</v>
+        <v>-0.07324099999999989</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE939A01011</t>
+          <t>INE917I01010</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Strides Pharma Science Ltd</t>
+          <t>Bajaj Auto Limited</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1100,30 +1100,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.56372</v>
+        <v>1.452922</v>
       </c>
       <c r="E21" t="n">
-        <v>1.418802</v>
+        <v>1.28806</v>
       </c>
       <c r="F21" t="n">
-        <v>1.42572</v>
+        <v>1.163339</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1449180000000001</v>
+        <v>0.1648620000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1379999999999999</v>
+        <v>0.2895830000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE208C01025</t>
+          <t>INE417T01026</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aegis Logistics Limited</t>
+          <t>PB Fintech Limited</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1132,30 +1132,30 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.549414</v>
+        <v>1.449659</v>
       </c>
       <c r="E22" t="n">
-        <v>1.994251</v>
+        <v>1.456701</v>
       </c>
       <c r="F22" t="n">
-        <v>3.365896</v>
+        <v>0.9681380000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.4448369999999999</v>
+        <v>-0.007041999999999993</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.816482</v>
+        <v>0.481521</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE930H01031</t>
+          <t>INE634A01018</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>K.P.R. Mill Limited</t>
+          <t>Honda India Power Products Limited</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1164,30 +1164,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.514501</v>
+        <v>1.180776</v>
       </c>
       <c r="E23" t="n">
-        <v>1.613388</v>
+        <v>1.24012</v>
       </c>
       <c r="F23" t="n">
-        <v>1.509346</v>
+        <v>1.181872</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.09888699999999995</v>
+        <v>-0.05934399999999984</v>
       </c>
       <c r="H23" t="n">
-        <v>0.005155000000000021</v>
+        <v>-0.001095999999999986</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE417T01026</t>
+          <t>INE151A01013</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PB Fintech Limited</t>
+          <t>Tata Communications Limited</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1196,30 +1196,30 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.456701</v>
+        <v>1.051527</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9681380000000001</v>
+        <v>1.112967</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8974220000000001</v>
+        <v>1.029329</v>
       </c>
       <c r="G24" t="n">
-        <v>0.488563</v>
+        <v>-0.06143999999999994</v>
       </c>
       <c r="H24" t="n">
-        <v>0.559279</v>
+        <v>0.02219800000000016</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE335Y01020</t>
+          <t>INE880J01026</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Indian Railway Catering &amp; Tourism Corp</t>
+          <t>JSW Infrastructure Limited</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1228,30 +1228,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.398464</v>
+        <v>1.030045</v>
       </c>
       <c r="E25" t="n">
-        <v>1.304557</v>
+        <v>1.033478</v>
       </c>
       <c r="F25" t="n">
-        <v>1.289366</v>
+        <v>0.912367</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09390699999999996</v>
+        <v>-0.003432999999999797</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1090979999999999</v>
+        <v>0.1176780000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE026A01025</t>
+          <t>INE768C01028</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Gujarat State Fert &amp; Chemicals Ltd</t>
+          <t>Zydus Wellness Ltd</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1260,30 +1260,30 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.342944</v>
+        <v>1.007731</v>
       </c>
       <c r="E26" t="n">
-        <v>1.261865</v>
+        <v>0.930617</v>
       </c>
       <c r="F26" t="n">
-        <v>1.232606</v>
+        <v>0.611171</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0810789999999999</v>
+        <v>0.0771139999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1103379999999998</v>
+        <v>0.3965599999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INE917I01010</t>
+          <t>INE485A01015</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bajaj Auto Limited</t>
+          <t>Century Enka Limited</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1292,30 +1292,30 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.28806</v>
+        <v>0.99807</v>
       </c>
       <c r="E27" t="n">
-        <v>1.163339</v>
+        <v>0.926569</v>
       </c>
       <c r="F27" t="n">
-        <v>1.076683</v>
+        <v>0.918561</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1247210000000001</v>
+        <v>0.07150100000000004</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2113769999999999</v>
+        <v>0.07950900000000005</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INE634A01018</t>
+          <t>INE696F01016</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Honda India Power Products Limited</t>
+          <t>Juniper Hotels Limited</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1324,30 +1324,30 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.24012</v>
+        <v>0.983478</v>
       </c>
       <c r="E28" t="n">
-        <v>1.181872</v>
+        <v>1.002738</v>
       </c>
       <c r="F28" t="n">
-        <v>1.210974</v>
+        <v>0.881695</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05824799999999986</v>
+        <v>-0.01925999999999994</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02914599999999989</v>
+        <v>0.101783</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INE151A01013</t>
+          <t>INE271B01025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tata Communications Limited</t>
+          <t>Maharashtra Seamless Ltd</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1356,30 +1356,30 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.112967</v>
+        <v>0.964022</v>
       </c>
       <c r="E29" t="n">
-        <v>1.029329</v>
+        <v>0.947545</v>
       </c>
       <c r="F29" t="n">
-        <v>1.004283</v>
+        <v>0.924776</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0836380000000001</v>
+        <v>0.01647700000000007</v>
       </c>
       <c r="H29" t="n">
-        <v>0.108684</v>
+        <v>0.039246</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INE880J01026</t>
+          <t>INE0BS701011</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>JSW Infrastructure Limited</t>
+          <t>Premier Energies Limited</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1388,30 +1388,30 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.033478</v>
+        <v>0.917673</v>
       </c>
       <c r="E30" t="n">
-        <v>0.912367</v>
+        <v>0.977622</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9237379999999999</v>
+        <v>1.053367</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1211109999999999</v>
+        <v>-0.05994900000000003</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1097399999999999</v>
+        <v>-0.135694</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INE696F01016</t>
+          <t>INE0OJW01016</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Juniper Hotels Limited</t>
+          <t>Rossell Techsys Ltd</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1420,30 +1420,30 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.002738</v>
+        <v>0.831641</v>
       </c>
       <c r="E31" t="n">
-        <v>0.881695</v>
+        <v>0.701399</v>
       </c>
       <c r="F31" t="n">
-        <v>0.95155</v>
+        <v>0.8022590000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1210429999999999</v>
+        <v>0.130242</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0511879999999999</v>
+        <v>0.02938199999999991</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>INE0BS701011</t>
+          <t>INE208C01025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Premier Energies Limited</t>
+          <t>Aegis Logistics Limited</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1452,30 +1452,30 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.977622</v>
+        <v>0.71537</v>
       </c>
       <c r="E32" t="n">
-        <v>1.053367</v>
+        <v>1.549414</v>
       </c>
       <c r="F32" t="n">
-        <v>1.114539</v>
+        <v>1.994251</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.07574499999999995</v>
+        <v>-0.8340440000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.136917</v>
+        <v>-1.278881</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INE271B01025</t>
+          <t>INE868B01028</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Maharashtra Seamless Ltd</t>
+          <t>NCC Ltd</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1484,30 +1484,30 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.947545</v>
+        <v>0.709415</v>
       </c>
       <c r="E33" t="n">
-        <v>0.924776</v>
+        <v>0.707862</v>
       </c>
       <c r="F33" t="n">
-        <v>0.842032</v>
+        <v>0.703321</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02276899999999993</v>
+        <v>0.001553000000000027</v>
       </c>
       <c r="H33" t="n">
-        <v>0.105513</v>
+        <v>0.006094000000000044</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>INE768C01028</t>
+          <t>INE281B01032</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Zydus Wellness Ltd</t>
+          <t>Lloyds Metals And Energy Limited</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1516,30 +1516,30 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.930617</v>
+        <v>0.646926</v>
       </c>
       <c r="E34" t="n">
-        <v>0.611171</v>
+        <v>0.70523</v>
       </c>
       <c r="F34" t="n">
-        <v>0.639038</v>
+        <v>0.605778</v>
       </c>
       <c r="G34" t="n">
-        <v>0.319446</v>
+        <v>-0.05830400000000002</v>
       </c>
       <c r="H34" t="n">
-        <v>0.291579</v>
+        <v>0.04114799999999996</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INE485A01015</t>
+          <t>INE647O01011</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Century Enka Limited</t>
+          <t>Aditya Birla Fashion And Retail Ltd</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1548,30 +1548,30 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.926569</v>
+        <v>0.559561</v>
       </c>
       <c r="E35" t="n">
-        <v>0.918561</v>
+        <v>0.589153</v>
       </c>
       <c r="F35" t="n">
-        <v>0.862553</v>
+        <v>0.557687</v>
       </c>
       <c r="G35" t="n">
-        <v>0.008008000000000015</v>
+        <v>-0.02959200000000006</v>
       </c>
       <c r="H35" t="n">
-        <v>0.06401599999999996</v>
+        <v>0.001873999999999931</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>INE0J1Y01017</t>
+          <t>INE205C01021</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Life Insurance Corporation Of India</t>
+          <t>Poly Medicure Limited</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1580,30 +1580,30 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.73594</v>
+        <v>0.540129</v>
       </c>
       <c r="E36" t="n">
-        <v>1.323217</v>
+        <v>0.573645</v>
       </c>
       <c r="F36" t="n">
-        <v>3.596032</v>
+        <v>0.583237</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.587277</v>
+        <v>-0.03351599999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>-2.860092</v>
+        <v>-0.04310800000000004</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>INE868B01028</t>
+          <t>INE726G01019</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NCC Ltd</t>
+          <t>ICICI Prudential Life Insurance Co Ltd</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1612,30 +1612,30 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.707862</v>
+        <v>0.490207</v>
       </c>
       <c r="E37" t="n">
-        <v>0.703321</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.822893</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.004541000000000017</v>
+        <v>0.490207</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.115031</v>
+        <v>0.490207</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INE281B01032</t>
+          <t>INE228A01035</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Lloyds Metals And Energy Limited</t>
+          <t>Usha Martin Limited</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1644,30 +1644,30 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.70523</v>
+        <v>0.383412</v>
       </c>
       <c r="E38" t="n">
-        <v>0.605778</v>
+        <v>0.387346</v>
       </c>
       <c r="F38" t="n">
-        <v>0.611629</v>
+        <v>0.339521</v>
       </c>
       <c r="G38" t="n">
-        <v>0.09945199999999998</v>
+        <v>-0.003934000000000049</v>
       </c>
       <c r="H38" t="n">
-        <v>0.09360100000000005</v>
+        <v>0.04389099999999996</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>INE0OJW01016</t>
+          <t>INE191B01025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Rossell Techsys Ltd</t>
+          <t>Welspun Corp Limited</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1676,30 +1676,30 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.701399</v>
+        <v>0.366386</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8022590000000001</v>
+        <v>0.372619</v>
       </c>
       <c r="F39" t="n">
-        <v>0.642725</v>
+        <v>0.364406</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1008600000000001</v>
+        <v>-0.006232999999999989</v>
       </c>
       <c r="H39" t="n">
-        <v>0.058674</v>
+        <v>0.001979999999999982</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>INE647O01011</t>
+          <t>INE182A01018</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aditya Birla Fashion And Retail Ltd</t>
+          <t>Pfizer Ltd</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1708,30 +1708,30 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.589153</v>
+        <v>0.329493</v>
       </c>
       <c r="E40" t="n">
-        <v>0.557687</v>
+        <v>0.327948</v>
       </c>
       <c r="F40" t="n">
-        <v>0.55017</v>
+        <v>0.304214</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03146599999999999</v>
+        <v>0.001544999999999963</v>
       </c>
       <c r="H40" t="n">
-        <v>0.03898299999999999</v>
+        <v>0.025279</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>INE205C01021</t>
+          <t>INE548A01028</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Poly Medicure Limited</t>
+          <t>HFCL Limited</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1740,30 +1740,30 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.573645</v>
+        <v>0.318672</v>
       </c>
       <c r="E41" t="n">
-        <v>0.583237</v>
+        <v>0.28674</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5679920000000001</v>
+        <v>0.276029</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.009592000000000045</v>
+        <v>0.03193200000000002</v>
       </c>
       <c r="H41" t="n">
-        <v>0.005652999999999908</v>
+        <v>0.04264299999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>INE228A01035</t>
+          <t>INE483B01026</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Usha Martin Limited</t>
+          <t>Indo Count Industries Limited</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1772,30 +1772,30 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.387346</v>
+        <v>0.291617</v>
       </c>
       <c r="E42" t="n">
-        <v>0.339521</v>
+        <v>0.31812</v>
       </c>
       <c r="F42" t="n">
-        <v>0.348313</v>
+        <v>0.339799</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04782500000000001</v>
+        <v>-0.026503</v>
       </c>
       <c r="H42" t="n">
-        <v>0.03903300000000004</v>
+        <v>-0.048182</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>INE191B01025</t>
+          <t>INE094A01015</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Welspun Corp Limited</t>
+          <t>Hindustan Petroleum Corporation Ltd</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1804,30 +1804,30 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.372619</v>
+        <v>0.268585</v>
       </c>
       <c r="E43" t="n">
-        <v>0.364406</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.388067</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.00821299999999997</v>
+        <v>0.268585</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.01544800000000002</v>
+        <v>0.268585</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>INE182A01018</t>
+          <t>INE0J1Y01017</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Pfizer Ltd</t>
+          <t>Life Insurance Corporation Of India</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1836,30 +1836,30 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.327948</v>
+        <v>0.260281</v>
       </c>
       <c r="E44" t="n">
-        <v>0.304214</v>
+        <v>0.73594</v>
       </c>
       <c r="F44" t="n">
-        <v>0.300797</v>
+        <v>1.323217</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02373400000000003</v>
+        <v>-0.4756590000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02715100000000004</v>
+        <v>-1.062936</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>INE483B01026</t>
+          <t>INE0U4701011</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Indo Count Industries Limited</t>
+          <t>Digitide Solutions Limited</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1868,30 +1868,30 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.31812</v>
+        <v>0.219276</v>
       </c>
       <c r="E45" t="n">
-        <v>0.339799</v>
+        <v>0.229963</v>
       </c>
       <c r="F45" t="n">
-        <v>0.280426</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.021679</v>
+        <v>-0.010687</v>
       </c>
       <c r="H45" t="n">
-        <v>0.03769400000000001</v>
+        <v>0.219276</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>INE548A01028</t>
+          <t>INE359U01028</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HFCL Limited</t>
+          <t>Lancer Container Lines Ltd.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1900,30 +1900,30 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.28674</v>
+        <v>0.08612499999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>0.276029</v>
+        <v>0.089869</v>
       </c>
       <c r="F46" t="n">
-        <v>0.273076</v>
+        <v>0.09776</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01071099999999997</v>
+        <v>-0.003744000000000011</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01366400000000001</v>
+        <v>-0.01163500000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>INE0U4701011</t>
+          <t>INE998I01010</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Digitide Solutions Limited</t>
+          <t>Mahindra Holidays &amp; Resorts Ind Ltd</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1932,30 +1932,30 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.229963</v>
+        <v>0.07929700000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>0.075485</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>0.072074</v>
       </c>
       <c r="G47" t="n">
-        <v>0.229963</v>
+        <v>0.00381200000000001</v>
       </c>
       <c r="H47" t="n">
-        <v>0.229963</v>
+        <v>0.007223000000000007</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>INE359U01028</t>
+          <t>INE847C01020</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Lancer Container Lines Ltd.</t>
+          <t>Rossell India Limited</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1964,30 +1964,30 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.089869</v>
+        <v>0.053064</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09776</v>
+        <v>0.056417</v>
       </c>
       <c r="F48" t="n">
-        <v>0.113524</v>
+        <v>0.06043</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.007890999999999995</v>
+        <v>-0.003353000000000002</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.023655</v>
+        <v>-0.007365999999999998</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>INE998I01010</t>
+          <t>INE216A01030</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mahindra Holidays &amp; Resorts Ind Ltd</t>
+          <t>Britannia Industries Limited</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1996,30 +1996,30 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.075485</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.072074</v>
+        <v>4.652427</v>
       </c>
       <c r="F49" t="n">
-        <v>0.070464</v>
+        <v>4.194022</v>
       </c>
       <c r="G49" t="n">
-        <v>0.003410999999999997</v>
+        <v>-4.652427</v>
       </c>
       <c r="H49" t="n">
-        <v>0.005020999999999998</v>
+        <v>-4.194022</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>INE847C01020</t>
+          <t>INE335Y01020</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Rossell India Limited</t>
+          <t>Indian Railway Catering &amp; Tourism Corp</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2028,30 +2028,30 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.056417</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.06043</v>
+        <v>1.398464</v>
       </c>
       <c r="F50" t="n">
-        <v>0.060239</v>
+        <v>1.304557</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.004012999999999996</v>
+        <v>-1.398464</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.003821999999999999</v>
+        <v>-1.304557</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>INE258G01013</t>
+          <t>INE01TY01017</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sumitomo Chemical India Limited</t>
+          <t>Canara HSBC Life Insurance Company Ltd</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2060,30 +2060,30 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.01758</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.016176</v>
+        <v>1.6305</v>
       </c>
       <c r="F51" t="n">
-        <v>0.070331</v>
+        <v>1.259182</v>
       </c>
       <c r="G51" t="n">
-        <v>0.001403999999999999</v>
+        <v>-1.6305</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.05275100000000001</v>
+        <v>-1.259182</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>INE647A01010</t>
+          <t>INE669C01036</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SRF Limited</t>
+          <t>Tech Mahindra Limited</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2095,27 +2095,27 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.345944</v>
+        <v>2.548546</v>
       </c>
       <c r="F52" t="n">
-        <v>0.327049</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.345944</v>
+        <v>-2.548546</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.327049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>INE031B01049</t>
+          <t>INE258G01013</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ajanta Pharma Ltd</t>
+          <t>Sumitomo Chemical India Limited</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2127,27 +2127,27 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>0.01758</v>
       </c>
       <c r="F53" t="n">
-        <v>0.595486</v>
+        <v>0.016176</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>-0.01758</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.595486</v>
+        <v>-0.016176</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>INE811K01011</t>
+          <t>INE647A01010</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Prestige Estates Projects Ltd</t>
+          <t>SRF Limited</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2162,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1.539813</v>
+        <v>0.345944</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>-1.539813</v>
+        <v>-0.345944</v>
       </c>
     </row>
     <row r="55">
@@ -2191,27 +2191,27 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
         <v>0.06445099999999999</v>
       </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
       <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
         <v>-0.06445099999999999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>INE326A01037</t>
+          <t>INE19RI01016</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Lupin Limited</t>
+          <t>Tenneco Clean Air India Ltd</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2226,13 +2226,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.499855</v>
+        <v>0.628235</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.499855</v>
+        <v>-0.628235</v>
       </c>
     </row>
     <row r="57">
@@ -2255,48 +2255,16 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
         <v>3.503622</v>
       </c>
-      <c r="F57" t="n">
-        <v>3.325544</v>
-      </c>
       <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
         <v>-3.503622</v>
-      </c>
-      <c r="H57" t="n">
-        <v>-3.325544</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>INE19RI01016</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Tenneco Clean Air India Ltd</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>quant Multi Cap Fund</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.628235</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-0.628235</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Multi_Cap_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Multi_Cap_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,20 +496,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>6.955886</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>6.205028</v>
       </c>
-      <c r="F2" t="n">
-        <v>5.983827</v>
-      </c>
       <c r="G2" t="n">
+        <v>5.24637</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.7508579999999991</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.9720589999999998</v>
+      <c r="I2" t="n">
+        <v>1.709516</v>
       </c>
     </row>
     <row r="3">
@@ -523,20 +533,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>5.270182</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>5.069235</v>
       </c>
-      <c r="F3" t="n">
-        <v>4.862739</v>
-      </c>
       <c r="G3" t="n">
+        <v>5.06434</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.2009470000000002</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.4074429999999998</v>
+      <c r="I3" t="n">
+        <v>0.2058420000000005</v>
       </c>
     </row>
     <row r="4">
@@ -555,20 +570,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>4.738305</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>4.480996</v>
       </c>
-      <c r="F4" t="n">
-        <v>4.153129</v>
-      </c>
       <c r="G4" t="n">
+        <v>3.884708</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.2573090000000002</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.5851760000000006</v>
+      <c r="I4" t="n">
+        <v>0.8535970000000006</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>3.696868</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>3.743531</v>
       </c>
-      <c r="F5" t="n">
-        <v>3.332591</v>
-      </c>
       <c r="G5" t="n">
+        <v>3.292986</v>
+      </c>
+      <c r="H5" t="n">
         <v>-0.04666300000000012</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.364277</v>
+      <c r="I5" t="n">
+        <v>0.4038819999999999</v>
       </c>
     </row>
     <row r="6">
@@ -619,20 +644,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>3.07675</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>6.232139</v>
       </c>
-      <c r="F6" t="n">
-        <v>5.785169</v>
-      </c>
       <c r="G6" t="n">
+        <v>5.180561</v>
+      </c>
+      <c r="H6" t="n">
         <v>-3.155389</v>
       </c>
-      <c r="H6" t="n">
-        <v>-2.708419</v>
+      <c r="I6" t="n">
+        <v>-2.103811</v>
       </c>
     </row>
     <row r="7">
@@ -651,20 +681,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>2.896197</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>2.92379</v>
       </c>
-      <c r="F7" t="n">
-        <v>2.768286</v>
-      </c>
       <c r="G7" t="n">
+        <v>2.844444</v>
+      </c>
+      <c r="H7" t="n">
         <v>-0.02759299999999998</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.1279110000000001</v>
+      <c r="I7" t="n">
+        <v>0.05175299999999972</v>
       </c>
     </row>
     <row r="8">
@@ -683,20 +718,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>2.647386</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>2.561256</v>
       </c>
-      <c r="F8" t="n">
-        <v>2.309871</v>
-      </c>
       <c r="G8" t="n">
+        <v>1.976526</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.08612999999999982</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.3375150000000002</v>
+      <c r="I8" t="n">
+        <v>0.67086</v>
       </c>
     </row>
     <row r="9">
@@ -715,20 +755,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>2.562184</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>2.587741</v>
       </c>
-      <c r="F9" t="n">
-        <v>2.626664</v>
-      </c>
       <c r="G9" t="n">
+        <v>2.632286</v>
+      </c>
+      <c r="H9" t="n">
         <v>-0.02555700000000005</v>
       </c>
-      <c r="H9" t="n">
-        <v>-0.06448000000000009</v>
+      <c r="I9" t="n">
+        <v>-0.07010200000000033</v>
       </c>
     </row>
     <row r="10">
@@ -747,20 +792,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>2.51366</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>2.316686</v>
       </c>
-      <c r="F10" t="n">
-        <v>2.198575</v>
-      </c>
       <c r="G10" t="n">
+        <v>2.167187</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.196974</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.3150849999999998</v>
+      <c r="I10" t="n">
+        <v>0.3464729999999996</v>
       </c>
     </row>
     <row r="11">
@@ -779,20 +829,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>2.430596</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>2.34015</v>
       </c>
-      <c r="F11" t="n">
-        <v>2.058173</v>
-      </c>
       <c r="G11" t="n">
+        <v>1.965147</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.09044600000000003</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.3724229999999999</v>
+      <c r="I11" t="n">
+        <v>0.465449</v>
       </c>
     </row>
     <row r="12">
@@ -811,20 +866,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>2.186376</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>1.844876</v>
       </c>
-      <c r="F12" t="n">
-        <v>1.756265</v>
-      </c>
       <c r="G12" t="n">
+        <v>1.848048</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.3415000000000001</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.4301110000000001</v>
+      <c r="I12" t="n">
+        <v>0.3383280000000002</v>
       </c>
     </row>
     <row r="13">
@@ -843,20 +903,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>2.062799</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.237375</v>
       </c>
-      <c r="F13" t="n">
-        <v>2.148602</v>
-      </c>
       <c r="G13" t="n">
+        <v>2.20673</v>
+      </c>
+      <c r="H13" t="n">
         <v>-0.1745760000000001</v>
       </c>
-      <c r="H13" t="n">
-        <v>-0.08580299999999985</v>
+      <c r="I13" t="n">
+        <v>-0.1439309999999998</v>
       </c>
     </row>
     <row r="14">
@@ -875,20 +940,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>2.029889</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.641755</v>
       </c>
-      <c r="F14" t="n">
-        <v>2.005746</v>
-      </c>
       <c r="G14" t="n">
+        <v>2.276528</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.3881339999999998</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.02414300000000003</v>
+      <c r="I14" t="n">
+        <v>-0.2466390000000001</v>
       </c>
     </row>
     <row r="15">
@@ -907,20 +977,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>1.962087</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.831818</v>
       </c>
-      <c r="F15" t="n">
-        <v>1.733739</v>
-      </c>
       <c r="G15" t="n">
+        <v>1.702405</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.130269</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.228348</v>
+      <c r="I15" t="n">
+        <v>0.259682</v>
       </c>
     </row>
     <row r="16">
@@ -939,20 +1014,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>1.67256</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.56372</v>
       </c>
-      <c r="F16" t="n">
-        <v>1.418802</v>
-      </c>
       <c r="G16" t="n">
+        <v>1.42572</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.10884</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.2537580000000002</v>
+      <c r="I16" t="n">
+        <v>0.2468399999999999</v>
       </c>
     </row>
     <row r="17">
@@ -971,20 +1051,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>1.614212</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>4.256152</v>
       </c>
-      <c r="F17" t="n">
-        <v>4.109184</v>
-      </c>
       <c r="G17" t="n">
+        <v>3.888108</v>
+      </c>
+      <c r="H17" t="n">
         <v>-2.64194</v>
       </c>
-      <c r="H17" t="n">
-        <v>-2.494972</v>
+      <c r="I17" t="n">
+        <v>-2.273896</v>
       </c>
     </row>
     <row r="18">
@@ -1003,20 +1088,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>1.534487</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.514501</v>
       </c>
-      <c r="F18" t="n">
-        <v>1.613388</v>
-      </c>
       <c r="G18" t="n">
+        <v>1.509346</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.01998599999999984</v>
       </c>
-      <c r="H18" t="n">
-        <v>-0.07890100000000011</v>
+      <c r="I18" t="n">
+        <v>0.02514099999999986</v>
       </c>
     </row>
     <row r="19">
@@ -1035,20 +1125,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>1.490414</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.342944</v>
       </c>
-      <c r="F19" t="n">
-        <v>1.261865</v>
-      </c>
       <c r="G19" t="n">
+        <v>1.232606</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.14747</v>
       </c>
-      <c r="H19" t="n">
-        <v>0.2285489999999999</v>
+      <c r="I19" t="n">
+        <v>0.2578079999999998</v>
       </c>
     </row>
     <row r="20">
@@ -1067,20 +1162,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>1.475138</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.631802</v>
       </c>
-      <c r="F20" t="n">
-        <v>1.548379</v>
-      </c>
       <c r="G20" t="n">
+        <v>1.50074</v>
+      </c>
+      <c r="H20" t="n">
         <v>-0.1566639999999999</v>
       </c>
-      <c r="H20" t="n">
-        <v>-0.07324099999999989</v>
+      <c r="I20" t="n">
+        <v>-0.0256019999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1099,20 +1199,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>1.452922</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>1.28806</v>
       </c>
-      <c r="F21" t="n">
-        <v>1.163339</v>
-      </c>
       <c r="G21" t="n">
+        <v>1.076683</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.1648620000000001</v>
       </c>
-      <c r="H21" t="n">
-        <v>0.2895830000000001</v>
+      <c r="I21" t="n">
+        <v>0.376239</v>
       </c>
     </row>
     <row r="22">
@@ -1131,20 +1236,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>1.449659</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>1.456701</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.9681380000000001</v>
-      </c>
       <c r="G22" t="n">
+        <v>0.8974220000000001</v>
+      </c>
+      <c r="H22" t="n">
         <v>-0.007041999999999993</v>
       </c>
-      <c r="H22" t="n">
-        <v>0.481521</v>
+      <c r="I22" t="n">
+        <v>0.552237</v>
       </c>
     </row>
     <row r="23">
@@ -1163,20 +1273,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>1.180776</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>1.24012</v>
       </c>
-      <c r="F23" t="n">
-        <v>1.181872</v>
-      </c>
       <c r="G23" t="n">
+        <v>1.210974</v>
+      </c>
+      <c r="H23" t="n">
         <v>-0.05934399999999984</v>
       </c>
-      <c r="H23" t="n">
-        <v>-0.001095999999999986</v>
+      <c r="I23" t="n">
+        <v>-0.03019799999999995</v>
       </c>
     </row>
     <row r="24">
@@ -1195,20 +1310,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>1.051527</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>1.112967</v>
       </c>
-      <c r="F24" t="n">
-        <v>1.029329</v>
-      </c>
       <c r="G24" t="n">
+        <v>1.004283</v>
+      </c>
+      <c r="H24" t="n">
         <v>-0.06143999999999994</v>
       </c>
-      <c r="H24" t="n">
-        <v>0.02219800000000016</v>
+      <c r="I24" t="n">
+        <v>0.04724400000000006</v>
       </c>
     </row>
     <row r="25">
@@ -1227,20 +1347,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
         <v>1.030045</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>1.033478</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.912367</v>
-      </c>
       <c r="G25" t="n">
+        <v>0.9237379999999999</v>
+      </c>
+      <c r="H25" t="n">
         <v>-0.003432999999999797</v>
       </c>
-      <c r="H25" t="n">
-        <v>0.1176780000000001</v>
+      <c r="I25" t="n">
+        <v>0.1063070000000002</v>
       </c>
     </row>
     <row r="26">
@@ -1259,20 +1384,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
         <v>1.007731</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>0.930617</v>
       </c>
-      <c r="F26" t="n">
-        <v>0.611171</v>
-      </c>
       <c r="G26" t="n">
+        <v>0.639038</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.0771139999999999</v>
       </c>
-      <c r="H26" t="n">
-        <v>0.3965599999999999</v>
+      <c r="I26" t="n">
+        <v>0.3686929999999999</v>
       </c>
     </row>
     <row r="27">
@@ -1291,20 +1421,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
         <v>0.99807</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>0.926569</v>
       </c>
-      <c r="F27" t="n">
-        <v>0.918561</v>
-      </c>
       <c r="G27" t="n">
+        <v>0.862553</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.07150100000000004</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.07950900000000005</v>
+      <c r="I27" t="n">
+        <v>0.135517</v>
       </c>
     </row>
     <row r="28">
@@ -1323,20 +1458,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
         <v>0.983478</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>1.002738</v>
       </c>
-      <c r="F28" t="n">
-        <v>0.881695</v>
-      </c>
       <c r="G28" t="n">
+        <v>0.95155</v>
+      </c>
+      <c r="H28" t="n">
         <v>-0.01925999999999994</v>
       </c>
-      <c r="H28" t="n">
-        <v>0.101783</v>
+      <c r="I28" t="n">
+        <v>0.03192799999999996</v>
       </c>
     </row>
     <row r="29">
@@ -1355,20 +1495,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
         <v>0.964022</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>0.947545</v>
       </c>
-      <c r="F29" t="n">
-        <v>0.924776</v>
-      </c>
       <c r="G29" t="n">
+        <v>0.842032</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.01647700000000007</v>
       </c>
-      <c r="H29" t="n">
-        <v>0.039246</v>
+      <c r="I29" t="n">
+        <v>0.12199</v>
       </c>
     </row>
     <row r="30">
@@ -1387,20 +1532,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
         <v>0.917673</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>0.977622</v>
       </c>
-      <c r="F30" t="n">
-        <v>1.053367</v>
-      </c>
       <c r="G30" t="n">
+        <v>1.114539</v>
+      </c>
+      <c r="H30" t="n">
         <v>-0.05994900000000003</v>
       </c>
-      <c r="H30" t="n">
-        <v>-0.135694</v>
+      <c r="I30" t="n">
+        <v>-0.196866</v>
       </c>
     </row>
     <row r="31">
@@ -1419,20 +1569,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
         <v>0.831641</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>0.701399</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.8022590000000001</v>
-      </c>
       <c r="G31" t="n">
+        <v>0.642725</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.130242</v>
       </c>
-      <c r="H31" t="n">
-        <v>0.02938199999999991</v>
+      <c r="I31" t="n">
+        <v>0.188916</v>
       </c>
     </row>
     <row r="32">
@@ -1451,20 +1606,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
         <v>0.71537</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>1.549414</v>
       </c>
-      <c r="F32" t="n">
-        <v>1.994251</v>
-      </c>
       <c r="G32" t="n">
+        <v>3.365896</v>
+      </c>
+      <c r="H32" t="n">
         <v>-0.8340440000000001</v>
       </c>
-      <c r="H32" t="n">
-        <v>-1.278881</v>
+      <c r="I32" t="n">
+        <v>-2.650526</v>
       </c>
     </row>
     <row r="33">
@@ -1483,20 +1643,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
         <v>0.709415</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>0.707862</v>
       </c>
-      <c r="F33" t="n">
-        <v>0.703321</v>
-      </c>
       <c r="G33" t="n">
+        <v>0.822893</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.001553000000000027</v>
       </c>
-      <c r="H33" t="n">
-        <v>0.006094000000000044</v>
+      <c r="I33" t="n">
+        <v>-0.113478</v>
       </c>
     </row>
     <row r="34">
@@ -1515,20 +1680,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
         <v>0.646926</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>0.70523</v>
       </c>
-      <c r="F34" t="n">
-        <v>0.605778</v>
-      </c>
       <c r="G34" t="n">
+        <v>0.611629</v>
+      </c>
+      <c r="H34" t="n">
         <v>-0.05830400000000002</v>
       </c>
-      <c r="H34" t="n">
-        <v>0.04114799999999996</v>
+      <c r="I34" t="n">
+        <v>0.03529700000000002</v>
       </c>
     </row>
     <row r="35">
@@ -1547,20 +1717,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
         <v>0.559561</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>0.589153</v>
       </c>
-      <c r="F35" t="n">
-        <v>0.557687</v>
-      </c>
       <c r="G35" t="n">
+        <v>0.55017</v>
+      </c>
+      <c r="H35" t="n">
         <v>-0.02959200000000006</v>
       </c>
-      <c r="H35" t="n">
-        <v>0.001873999999999931</v>
+      <c r="I35" t="n">
+        <v>0.009390999999999927</v>
       </c>
     </row>
     <row r="36">
@@ -1579,20 +1754,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
         <v>0.540129</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>0.573645</v>
       </c>
-      <c r="F36" t="n">
-        <v>0.583237</v>
-      </c>
       <c r="G36" t="n">
+        <v>0.5679920000000001</v>
+      </c>
+      <c r="H36" t="n">
         <v>-0.03351599999999999</v>
       </c>
-      <c r="H36" t="n">
-        <v>-0.04310800000000004</v>
+      <c r="I36" t="n">
+        <v>-0.02786300000000008</v>
       </c>
     </row>
     <row r="37">
@@ -1611,21 +1791,26 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
         <v>0.490207</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.490207</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0.490207</v>
       </c>
+      <c r="I37" t="n">
+        <v>0.490207</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1643,20 +1828,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
         <v>0.383412</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>0.387346</v>
       </c>
-      <c r="F38" t="n">
-        <v>0.339521</v>
-      </c>
       <c r="G38" t="n">
+        <v>0.348313</v>
+      </c>
+      <c r="H38" t="n">
         <v>-0.003934000000000049</v>
       </c>
-      <c r="H38" t="n">
-        <v>0.04389099999999996</v>
+      <c r="I38" t="n">
+        <v>0.03509899999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1675,20 +1865,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
         <v>0.366386</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>0.372619</v>
       </c>
-      <c r="F39" t="n">
-        <v>0.364406</v>
-      </c>
       <c r="G39" t="n">
+        <v>0.388067</v>
+      </c>
+      <c r="H39" t="n">
         <v>-0.006232999999999989</v>
       </c>
-      <c r="H39" t="n">
-        <v>0.001979999999999982</v>
+      <c r="I39" t="n">
+        <v>-0.02168100000000001</v>
       </c>
     </row>
     <row r="40">
@@ -1707,20 +1902,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
         <v>0.329493</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>0.327948</v>
       </c>
-      <c r="F40" t="n">
-        <v>0.304214</v>
-      </c>
       <c r="G40" t="n">
+        <v>0.300797</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.001544999999999963</v>
       </c>
-      <c r="H40" t="n">
-        <v>0.025279</v>
+      <c r="I40" t="n">
+        <v>0.028696</v>
       </c>
     </row>
     <row r="41">
@@ -1739,20 +1939,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
         <v>0.318672</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>0.28674</v>
       </c>
-      <c r="F41" t="n">
-        <v>0.276029</v>
-      </c>
       <c r="G41" t="n">
+        <v>0.273076</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.03193200000000002</v>
       </c>
-      <c r="H41" t="n">
-        <v>0.04264299999999999</v>
+      <c r="I41" t="n">
+        <v>0.04559600000000003</v>
       </c>
     </row>
     <row r="42">
@@ -1771,20 +1976,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
         <v>0.291617</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>0.31812</v>
       </c>
-      <c r="F42" t="n">
-        <v>0.339799</v>
-      </c>
       <c r="G42" t="n">
+        <v>0.280426</v>
+      </c>
+      <c r="H42" t="n">
         <v>-0.026503</v>
       </c>
-      <c r="H42" t="n">
-        <v>-0.048182</v>
+      <c r="I42" t="n">
+        <v>0.01119100000000001</v>
       </c>
     </row>
     <row r="43">
@@ -1803,21 +2013,26 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
         <v>0.268585</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.268585</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0.268585</v>
       </c>
+      <c r="I43" t="n">
+        <v>0.268585</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1835,20 +2050,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
         <v>0.260281</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>0.73594</v>
       </c>
-      <c r="F44" t="n">
-        <v>1.323217</v>
-      </c>
       <c r="G44" t="n">
+        <v>3.596032</v>
+      </c>
+      <c r="H44" t="n">
         <v>-0.4756590000000001</v>
       </c>
-      <c r="H44" t="n">
-        <v>-1.062936</v>
+      <c r="I44" t="n">
+        <v>-3.335751</v>
       </c>
     </row>
     <row r="45">
@@ -1867,19 +2087,24 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
         <v>0.219276</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>0.229963</v>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
         <v>-0.010687</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>0.219276</v>
       </c>
     </row>
@@ -1899,20 +2124,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
         <v>0.08612499999999999</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>0.089869</v>
       </c>
-      <c r="F46" t="n">
-        <v>0.09776</v>
-      </c>
       <c r="G46" t="n">
+        <v>0.113524</v>
+      </c>
+      <c r="H46" t="n">
         <v>-0.003744000000000011</v>
       </c>
-      <c r="H46" t="n">
-        <v>-0.01163500000000001</v>
+      <c r="I46" t="n">
+        <v>-0.02739900000000001</v>
       </c>
     </row>
     <row r="47">
@@ -1931,20 +2161,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
         <v>0.07929700000000001</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>0.075485</v>
       </c>
-      <c r="F47" t="n">
-        <v>0.072074</v>
-      </c>
       <c r="G47" t="n">
+        <v>0.070464</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.00381200000000001</v>
       </c>
-      <c r="H47" t="n">
-        <v>0.007223000000000007</v>
+      <c r="I47" t="n">
+        <v>0.008833000000000008</v>
       </c>
     </row>
     <row r="48">
@@ -1963,31 +2198,36 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
         <v>0.053064</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>0.056417</v>
       </c>
-      <c r="F48" t="n">
-        <v>0.06043</v>
-      </c>
       <c r="G48" t="n">
+        <v>0.060239</v>
+      </c>
+      <c r="H48" t="n">
         <v>-0.003353000000000002</v>
       </c>
-      <c r="H48" t="n">
-        <v>-0.007365999999999998</v>
+      <c r="I48" t="n">
+        <v>-0.007175000000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>INE216A01030</t>
+          <t>INE031B01049</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Britannia Industries Limited</t>
+          <t>Ajanta Pharma Ltd</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1995,31 +2235,36 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>0</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E49" t="n">
-        <v>4.652427</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>4.194022</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.652427</v>
+        <v>0.595486</v>
       </c>
       <c r="H49" t="n">
-        <v>-4.194022</v>
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.595486</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>INE335Y01020</t>
+          <t>INE811K01011</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Indian Railway Catering &amp; Tourism Corp</t>
+          <t>Prestige Estates Projects Ltd</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2027,31 +2272,36 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>0</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E50" t="n">
-        <v>1.398464</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1.304557</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.398464</v>
+        <v>1.539813</v>
       </c>
       <c r="H50" t="n">
-        <v>-1.304557</v>
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-1.539813</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>INE01TY01017</t>
+          <t>INE216A01030</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Canara HSBC Life Insurance Company Ltd</t>
+          <t>Britannia Industries Limited</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2059,31 +2309,36 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>0</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E51" t="n">
-        <v>1.6305</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1.259182</v>
+        <v>4.652427</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.6305</v>
+        <v>3.954185</v>
       </c>
       <c r="H51" t="n">
-        <v>-1.259182</v>
+        <v>-4.652427</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-3.954185</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>INE669C01036</t>
+          <t>INE01TY01017</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tech Mahindra Limited</t>
+          <t>Canara HSBC Life Insurance Company Ltd</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2091,20 +2346,25 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>0</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E52" t="n">
-        <v>2.548546</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1.6305</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.548546</v>
+        <v>1.124549</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>-1.6305</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-1.124549</v>
       </c>
     </row>
     <row r="53">
@@ -2123,31 +2383,36 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>0</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
         <v>0.01758</v>
       </c>
-      <c r="F53" t="n">
-        <v>0.016176</v>
-      </c>
       <c r="G53" t="n">
+        <v>0.070331</v>
+      </c>
+      <c r="H53" t="n">
         <v>-0.01758</v>
       </c>
-      <c r="H53" t="n">
-        <v>-0.016176</v>
+      <c r="I53" t="n">
+        <v>-0.070331</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>INE647A01010</t>
+          <t>INE669C01036</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SRF Limited</t>
+          <t>Tech Mahindra Limited</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2155,31 +2420,36 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>0</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.345944</v>
+        <v>2.548546</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.345944</v>
+        <v>-2.548546</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE647A01010</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>SRF Limited</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2187,31 +2457,36 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>0</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06445099999999999</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>0.327049</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.06445099999999999</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-0.327049</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>INE19RI01016</t>
+          <t>INE296A01032</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tenneco Clean Air India Ltd</t>
+          <t>Bajaj Finance Limited</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2219,31 +2494,36 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>0</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.628235</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>3.325544</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.628235</v>
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-3.325544</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>INE296A01032</t>
+          <t>INE326A01037</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Bajaj Finance Limited</t>
+          <t>Lupin Limited</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2251,20 +2531,62 @@
           <t>quant Multi Cap Fund</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>0</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>3.503622</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>0.499855</v>
       </c>
       <c r="H57" t="n">
-        <v>-3.503622</v>
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.499855</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>INE335Y01020</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Indian Railway Catering &amp; Tourism Corp</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.398464</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.289366</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-1.398464</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1.289366</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Multi_Cap_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Multi_Cap_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>6.955886</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>6.205028</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>5.24637</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.7508579999999991</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>1.709516</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>5.270182</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>5.069235</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>5.06434</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.2009470000000002</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.2058420000000005</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>4.738305</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>4.480996</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>3.884708</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.2573090000000002</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.8535970000000006</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>3.696868</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>3.743531</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>3.292986</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>-0.04666300000000012</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.4038819999999999</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>3.07675</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>6.232139</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>5.180561</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>-3.155389</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>-2.103811</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>2.896197</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>2.92379</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>2.844444</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>-0.02759299999999998</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.05175299999999972</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>2.647386</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>2.561256</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>1.976526</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.08612999999999982</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.67086</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Agricultural Food &amp; other Products</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>2.562184</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>2.587741</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>2.632286</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>-0.02555700000000005</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>-0.07010200000000033</v>
       </c>
     </row>
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>2.51366</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2.316686</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>2.167187</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.196974</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>0.3464729999999996</v>
       </c>
     </row>
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>2.430596</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>2.34015</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>1.965147</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.09044600000000003</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.465449</v>
       </c>
     </row>
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.186376</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>1.844876</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>1.848048</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>0.3415000000000001</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>0.3383280000000002</v>
       </c>
     </row>
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.062799</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>2.237375</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>2.20673</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>-0.1745760000000001</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>-0.1439309999999998</v>
       </c>
     </row>
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2.029889</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>1.641755</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>2.276528</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>0.3881339999999998</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>-0.2466390000000001</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.962087</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>1.831818</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>1.702405</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>0.130269</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.259682</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.67256</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>1.56372</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>1.42572</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>0.10884</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>0.2468399999999999</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.614212</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>4.256152</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>3.888108</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>-2.64194</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>-2.273896</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Textiles &amp; Apparels</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.534487</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>1.514501</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>1.509346</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>0.01998599999999984</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>0.02514099999999986</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Fertilizers &amp; Agrochemicals</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.490414</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>1.342944</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>1.232606</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>0.14747</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>0.2578079999999998</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.475138</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>1.631802</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>1.50074</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>-0.1566639999999999</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>-0.0256019999999999</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>1.452922</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>1.28806</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>1.076683</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>0.1648620000000001</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>0.376239</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Financial Technology (Fintech)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>1.449659</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>1.456701</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>0.8974220000000001</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>-0.007041999999999993</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>0.552237</v>
       </c>
     </row>
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Industrial Manufacturing</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>1.180776</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>1.24012</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>1.210974</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>-0.05934399999999984</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>-0.03019799999999995</v>
       </c>
     </row>
@@ -1307,27 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Telecom - Services</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>1.051527</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>1.112967</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>1.004283</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>-0.06143999999999994</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>0.04724400000000006</v>
       </c>
     </row>
@@ -1344,27 +1464,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Transport Infrastructure</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>1.030045</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>1.033478</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>0.9237379999999999</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>-0.003432999999999797</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>0.1063070000000002</v>
       </c>
     </row>
@@ -1381,27 +1506,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Food Products</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>1.007731</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>0.930617</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>0.639038</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>0.0771139999999999</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>0.3686929999999999</v>
       </c>
     </row>
@@ -1418,27 +1548,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Textiles &amp; Apparels</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>0.99807</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>0.926569</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>0.862553</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>0.07150100000000004</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>0.135517</v>
       </c>
     </row>
@@ -1455,27 +1590,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Leisure Services</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>0.983478</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>1.002738</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>0.95155</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>-0.01925999999999994</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>0.03192799999999996</v>
       </c>
     </row>
@@ -1492,27 +1632,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>0.964022</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>0.947545</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>0.842032</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>0.01647700000000007</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>0.12199</v>
       </c>
     </row>
@@ -1529,27 +1674,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>0.917673</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>0.977622</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>1.114539</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>-0.05994900000000003</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>-0.196866</v>
       </c>
     </row>
@@ -1566,27 +1716,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>0.831641</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>0.701399</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>0.642725</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>0.130242</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>0.188916</v>
       </c>
     </row>
@@ -1603,27 +1758,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>0.71537</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>1.549414</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>3.365896</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>-0.8340440000000001</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>-2.650526</v>
       </c>
     </row>
@@ -1640,27 +1800,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>0.709415</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>0.707862</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>0.822893</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>0.001553000000000027</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>-0.113478</v>
       </c>
     </row>
@@ -1677,27 +1842,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Minerals &amp; Mining</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>0.646926</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>0.70523</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>0.611629</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>-0.05830400000000002</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>0.03529700000000002</v>
       </c>
     </row>
@@ -1714,27 +1884,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>0.559561</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>0.589153</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>0.55017</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>-0.02959200000000006</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>0.009390999999999927</v>
       </c>
     </row>
@@ -1751,27 +1926,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Healthcare Equipment &amp; Supplies</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>0.540129</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>0.573645</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>0.5679920000000001</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>-0.03351599999999999</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>-0.02786300000000008</v>
       </c>
     </row>
@@ -1788,29 +1968,34 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>0.490207</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.490207</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0.490207</v>
       </c>
+      <c r="J37" t="n">
+        <v>0.490207</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1825,27 +2010,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>0.383412</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>0.387346</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>0.348313</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>-0.003934000000000049</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>0.03509899999999999</v>
       </c>
     </row>
@@ -1862,27 +2052,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>0.366386</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>0.372619</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>0.388067</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>-0.006232999999999989</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>-0.02168100000000001</v>
       </c>
     </row>
@@ -1899,27 +2094,32 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>0.329493</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>0.327948</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>0.300797</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>0.001544999999999963</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>0.028696</v>
       </c>
     </row>
@@ -1936,27 +2136,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Telecom - Services</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>0.318672</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>0.28674</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>0.273076</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>0.03193200000000002</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>0.04559600000000003</v>
       </c>
     </row>
@@ -1973,27 +2178,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Textiles &amp; Apparels</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>0.291617</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>0.31812</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>0.280426</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>-0.026503</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>0.01119100000000001</v>
       </c>
     </row>
@@ -2010,29 +2220,34 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>0.268585</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.268585</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0.268585</v>
       </c>
+      <c r="J43" t="n">
+        <v>0.268585</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2047,27 +2262,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>0.260281</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>0.73594</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>3.596032</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>-0.4756590000000001</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>-3.335751</v>
       </c>
     </row>
@@ -2084,27 +2304,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>IT - Services</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>0.219276</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>0.229963</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>-0.010687</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>0.219276</v>
       </c>
     </row>
@@ -2121,27 +2346,32 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Transport Services</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>0.08612499999999999</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>0.089869</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>0.113524</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>-0.003744000000000011</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>-0.02739900000000001</v>
       </c>
     </row>
@@ -2158,27 +2388,32 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Leisure Services</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>0.07929700000000001</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>0.075485</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>0.070464</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>0.00381200000000001</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>0.008833000000000008</v>
       </c>
     </row>
@@ -2195,27 +2430,32 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Agricultural Food &amp; other Products</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>0.053064</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>0.056417</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>0.060239</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>-0.003353000000000002</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>-0.007175000000000001</v>
       </c>
     </row>
@@ -2232,27 +2472,32 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.595486</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>-0.595486</v>
       </c>
     </row>
@@ -2269,27 +2514,32 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.539813</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>-1.539813</v>
       </c>
     </row>
@@ -2306,27 +2556,32 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Food Products</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>0</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>4.652427</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>3.954185</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>-4.652427</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>-3.954185</v>
       </c>
     </row>
@@ -2343,27 +2598,32 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>0</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>1.6305</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>1.124549</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>-1.6305</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>-1.124549</v>
       </c>
     </row>
@@ -2380,27 +2640,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Fertilizers &amp; Agrochemicals</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>0</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>0.01758</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>0.070331</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>-0.01758</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>-0.070331</v>
       </c>
     </row>
@@ -2417,27 +2682,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>0</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>2.548546</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>-2.548546</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2454,27 +2724,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
         <v>0.327049</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>-0.327049</v>
       </c>
     </row>
@@ -2491,27 +2766,32 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
         <v>3.325544</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>-3.325544</v>
       </c>
     </row>
@@ -2528,27 +2808,32 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.499855</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>-0.499855</v>
       </c>
     </row>
@@ -2565,27 +2850,32 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>quant Multi Cap Fund</t>
+          <t>Leisure Services</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>quant Multi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>0</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>1.398464</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>1.289366</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>-1.398464</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>-1.289366</v>
       </c>
     </row>
